--- a/data/pca/factorExposure/factorExposure_2016-07-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01110498129188432</v>
+        <v>0.01315705070161457</v>
       </c>
       <c r="C2">
-        <v>-0.04792355344482777</v>
+        <v>0.04141483808364168</v>
       </c>
       <c r="D2">
-        <v>-0.03353857516524223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06290465097085453</v>
+      </c>
+      <c r="E2">
+        <v>-0.068518527867546</v>
+      </c>
+      <c r="F2">
+        <v>0.06272059766128817</v>
+      </c>
+      <c r="G2">
+        <v>0.04085719469602093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04187157416110061</v>
+        <v>0.02939615833669073</v>
       </c>
       <c r="C3">
-        <v>-0.1182702398969333</v>
+        <v>0.07953765977792823</v>
       </c>
       <c r="D3">
-        <v>-0.1052946671151172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09050268429692755</v>
+      </c>
+      <c r="E3">
+        <v>-0.06648450574002866</v>
+      </c>
+      <c r="F3">
+        <v>-0.0124358419983589</v>
+      </c>
+      <c r="G3">
+        <v>-0.03480045234989094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06150105753329481</v>
+        <v>0.0583043559300012</v>
       </c>
       <c r="C4">
-        <v>-0.05828877372340158</v>
+        <v>0.06442889066833347</v>
       </c>
       <c r="D4">
-        <v>-0.03315678239636843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06135999265201775</v>
+      </c>
+      <c r="E4">
+        <v>-0.0706228601062832</v>
+      </c>
+      <c r="F4">
+        <v>0.07680256164847746</v>
+      </c>
+      <c r="G4">
+        <v>-0.03700813647743478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0393250183199219</v>
+        <v>0.03565166847516908</v>
       </c>
       <c r="C6">
-        <v>-0.0398902478956713</v>
+        <v>0.0322574924199376</v>
       </c>
       <c r="D6">
-        <v>-0.03042477894122267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06478080553948537</v>
+      </c>
+      <c r="E6">
+        <v>-0.07318115495591852</v>
+      </c>
+      <c r="F6">
+        <v>0.05475530713390089</v>
+      </c>
+      <c r="G6">
+        <v>-0.02183003678404937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02115425364123227</v>
+        <v>0.01841222516258442</v>
       </c>
       <c r="C7">
-        <v>-0.04371809267487888</v>
+        <v>0.03845106467930544</v>
       </c>
       <c r="D7">
-        <v>0.005652032356947005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03936519341828299</v>
+      </c>
+      <c r="E7">
+        <v>-0.04830693940231932</v>
+      </c>
+      <c r="F7">
+        <v>0.09809946134448184</v>
+      </c>
+      <c r="G7">
+        <v>-0.008375007925202746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.00418233493890609</v>
+        <v>0.003619736859345602</v>
       </c>
       <c r="C8">
-        <v>-0.03047870009161874</v>
+        <v>0.02977547842788213</v>
       </c>
       <c r="D8">
-        <v>-0.02395979343986106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03297665050397732</v>
+      </c>
+      <c r="E8">
+        <v>-0.04975236010589205</v>
+      </c>
+      <c r="F8">
+        <v>0.03374787104098953</v>
+      </c>
+      <c r="G8">
+        <v>-0.007775466524488373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03391979764277215</v>
+        <v>0.03709971997566211</v>
       </c>
       <c r="C9">
-        <v>-0.04441634569822694</v>
+        <v>0.05123499352150188</v>
       </c>
       <c r="D9">
-        <v>-0.01455890771366344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04407879443802038</v>
+      </c>
+      <c r="E9">
+        <v>-0.05872482972297049</v>
+      </c>
+      <c r="F9">
+        <v>0.08142684013376529</v>
+      </c>
+      <c r="G9">
+        <v>-0.02282919936980065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08036453788968917</v>
+        <v>0.1002614088374813</v>
       </c>
       <c r="C10">
-        <v>0.1925055272024257</v>
+        <v>-0.1960446515475051</v>
       </c>
       <c r="D10">
-        <v>0.00590245111377202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.004331263995260178</v>
+      </c>
+      <c r="E10">
+        <v>-0.04448058637300431</v>
+      </c>
+      <c r="F10">
+        <v>0.03843447261842359</v>
+      </c>
+      <c r="G10">
+        <v>-0.009152908015880888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04073182981933214</v>
+        <v>0.03656241803061402</v>
       </c>
       <c r="C11">
-        <v>-0.05507172122716987</v>
+        <v>0.05120125649221177</v>
       </c>
       <c r="D11">
-        <v>-0.01412714668657625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03493296055227075</v>
+      </c>
+      <c r="E11">
+        <v>-0.0168656227213605</v>
+      </c>
+      <c r="F11">
+        <v>0.06510593444048988</v>
+      </c>
+      <c r="G11">
+        <v>-0.01481409955024989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04032447139741684</v>
+        <v>0.03743383615810729</v>
       </c>
       <c r="C12">
-        <v>-0.04932814114365069</v>
+        <v>0.04753846282331705</v>
       </c>
       <c r="D12">
-        <v>-0.00343528348016483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02738225613543705</v>
+      </c>
+      <c r="E12">
+        <v>-0.02456127488265275</v>
+      </c>
+      <c r="F12">
+        <v>0.06391584978162297</v>
+      </c>
+      <c r="G12">
+        <v>-0.01184035336246097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0134144114219747</v>
+        <v>0.01217957535647774</v>
       </c>
       <c r="C13">
-        <v>-0.05358918923163668</v>
+        <v>0.04598550143103093</v>
       </c>
       <c r="D13">
-        <v>-0.01736870187700526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05850975284634921</v>
+      </c>
+      <c r="E13">
+        <v>-0.08316666588920234</v>
+      </c>
+      <c r="F13">
+        <v>0.09253996791073585</v>
+      </c>
+      <c r="G13">
+        <v>-0.01886821185231912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006590230996056641</v>
+        <v>0.004587696232736903</v>
       </c>
       <c r="C14">
-        <v>-0.0374455262727598</v>
+        <v>0.03340624810946496</v>
       </c>
       <c r="D14">
-        <v>0.01373215029438677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02632033825825946</v>
+      </c>
+      <c r="E14">
+        <v>-0.03713595737642148</v>
+      </c>
+      <c r="F14">
+        <v>0.09126193520698814</v>
+      </c>
+      <c r="G14">
+        <v>0.006118401321587673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0004181705776771462</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005109898945380669</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007052585944078713</v>
+      </c>
+      <c r="E15">
+        <v>-0.002580992399608137</v>
+      </c>
+      <c r="F15">
+        <v>0.005606065734334281</v>
+      </c>
+      <c r="G15">
+        <v>8.148667904386345e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03698115021722332</v>
+        <v>0.03422148153476152</v>
       </c>
       <c r="C16">
-        <v>-0.04794497844006609</v>
+        <v>0.04573759129408986</v>
       </c>
       <c r="D16">
-        <v>-0.008831505818131196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02814566699884447</v>
+      </c>
+      <c r="E16">
+        <v>-0.03142023572370117</v>
+      </c>
+      <c r="F16">
+        <v>0.0646779873058112</v>
+      </c>
+      <c r="G16">
+        <v>-0.0005979458082577287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02065945525404918</v>
+        <v>0.01672679081519161</v>
       </c>
       <c r="C19">
-        <v>-0.06334964741748673</v>
+        <v>0.05074443655887202</v>
       </c>
       <c r="D19">
-        <v>-0.08056345391549884</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09202214545155582</v>
+      </c>
+      <c r="E19">
+        <v>-0.09677354578710068</v>
+      </c>
+      <c r="F19">
+        <v>0.06731214025385764</v>
+      </c>
+      <c r="G19">
+        <v>0.02635395175057548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01661337915739923</v>
+        <v>0.01378625833040887</v>
       </c>
       <c r="C20">
-        <v>-0.0479222993898217</v>
+        <v>0.041362904470095</v>
       </c>
       <c r="D20">
-        <v>-0.01443278004064899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04093132528276788</v>
+      </c>
+      <c r="E20">
+        <v>-0.06849001980504277</v>
+      </c>
+      <c r="F20">
+        <v>0.07576354548276851</v>
+      </c>
+      <c r="G20">
+        <v>-0.005086696368143188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01019665468230552</v>
+        <v>0.009338645814699965</v>
       </c>
       <c r="C21">
-        <v>-0.04934888252771881</v>
+        <v>0.0452539090772768</v>
       </c>
       <c r="D21">
-        <v>-0.03756047464697967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0690201831838046</v>
+      </c>
+      <c r="E21">
+        <v>-0.1008765820981786</v>
+      </c>
+      <c r="F21">
+        <v>0.1157675128135315</v>
+      </c>
+      <c r="G21">
+        <v>-0.004552540751649679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.000358258552098506</v>
+        <v>0.002349984796815728</v>
       </c>
       <c r="C22">
-        <v>-0.0002489616814153381</v>
+        <v>0.02468805042677834</v>
       </c>
       <c r="D22">
-        <v>-0.0006862080758839613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03932447887078961</v>
+      </c>
+      <c r="E22">
+        <v>-0.03028722355809035</v>
+      </c>
+      <c r="F22">
+        <v>0.01204574658328682</v>
+      </c>
+      <c r="G22">
+        <v>-0.0396245715970051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.000358258552098506</v>
+        <v>0.002420460405876246</v>
       </c>
       <c r="C23">
-        <v>-0.0002489616814153381</v>
+        <v>0.02483501672477959</v>
       </c>
       <c r="D23">
-        <v>-0.0006862080758839613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03899303248558974</v>
+      </c>
+      <c r="E23">
+        <v>-0.03056782005221815</v>
+      </c>
+      <c r="F23">
+        <v>0.01184617548897523</v>
+      </c>
+      <c r="G23">
+        <v>-0.03983147927795175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03328311657444654</v>
+        <v>0.03385018148563665</v>
       </c>
       <c r="C24">
-        <v>-0.05096197603166011</v>
+        <v>0.05354035395462543</v>
       </c>
       <c r="D24">
-        <v>-0.007386703634137516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0281485546214453</v>
+      </c>
+      <c r="E24">
+        <v>-0.02904088893196608</v>
+      </c>
+      <c r="F24">
+        <v>0.07373558587687422</v>
+      </c>
+      <c r="G24">
+        <v>-0.00889329204372493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04706576048786418</v>
+        <v>0.04394143173508848</v>
       </c>
       <c r="C25">
-        <v>-0.06199923864421175</v>
+        <v>0.05752109467412026</v>
       </c>
       <c r="D25">
-        <v>0.000778999738352591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02651251502889854</v>
+      </c>
+      <c r="E25">
+        <v>-0.02340622637648271</v>
+      </c>
+      <c r="F25">
+        <v>0.07557090053882212</v>
+      </c>
+      <c r="G25">
+        <v>-0.0254075746235448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01465600005587944</v>
+        <v>0.01403213055711078</v>
       </c>
       <c r="C26">
-        <v>-0.01725498768226958</v>
+        <v>0.01827528051210471</v>
       </c>
       <c r="D26">
-        <v>0.0008059529739138402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02509933370953293</v>
+      </c>
+      <c r="E26">
+        <v>-0.04038049969587754</v>
+      </c>
+      <c r="F26">
+        <v>0.06423316712174686</v>
+      </c>
+      <c r="G26">
+        <v>0.0137188783229177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09708636040884254</v>
+        <v>0.1352010838413476</v>
       </c>
       <c r="C28">
-        <v>0.2363816824748226</v>
+        <v>-0.2464510412441923</v>
       </c>
       <c r="D28">
-        <v>0.005677516892076647</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0179622519416201</v>
+      </c>
+      <c r="E28">
+        <v>-0.05734662897937196</v>
+      </c>
+      <c r="F28">
+        <v>0.05444083119973294</v>
+      </c>
+      <c r="G28">
+        <v>-0.01965069933546168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006681410975284264</v>
+        <v>0.005781096683762495</v>
       </c>
       <c r="C29">
-        <v>-0.03001071331372521</v>
+        <v>0.02888833907146837</v>
       </c>
       <c r="D29">
-        <v>0.01776319130724677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02023005231853146</v>
+      </c>
+      <c r="E29">
+        <v>-0.03808515689983753</v>
+      </c>
+      <c r="F29">
+        <v>0.08538730270478681</v>
+      </c>
+      <c r="G29">
+        <v>-0.007597875051964634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04693023789749325</v>
+        <v>0.04253453997892513</v>
       </c>
       <c r="C30">
-        <v>-0.06475873751981583</v>
+        <v>0.06501079748332779</v>
       </c>
       <c r="D30">
-        <v>-0.07711559406851688</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1106468609913369</v>
+      </c>
+      <c r="E30">
+        <v>-0.06168990862376161</v>
+      </c>
+      <c r="F30">
+        <v>0.08385707343617292</v>
+      </c>
+      <c r="G30">
+        <v>0.01412801337054228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05361511857375472</v>
+        <v>0.05540583900911848</v>
       </c>
       <c r="C31">
-        <v>-0.0386258433576978</v>
+        <v>0.05757116402432197</v>
       </c>
       <c r="D31">
-        <v>0.02948655188050672</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01115159409375254</v>
+      </c>
+      <c r="E31">
+        <v>-0.06252817090765413</v>
+      </c>
+      <c r="F31">
+        <v>0.06838178592695224</v>
+      </c>
+      <c r="G31">
+        <v>-0.04635305668471908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002101539271423789</v>
+        <v>0.004492926794588957</v>
       </c>
       <c r="C32">
-        <v>-0.03630796941709832</v>
+        <v>0.03457137539861204</v>
       </c>
       <c r="D32">
-        <v>-0.04048473472324991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0540471839632778</v>
+      </c>
+      <c r="E32">
+        <v>-0.04239299998266154</v>
+      </c>
+      <c r="F32">
+        <v>0.06464807844072776</v>
+      </c>
+      <c r="G32">
+        <v>0.01065992484648612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02737731464335067</v>
+        <v>0.02483694748832166</v>
       </c>
       <c r="C33">
-        <v>-0.05919477576935558</v>
+        <v>0.0549077988529925</v>
       </c>
       <c r="D33">
-        <v>-0.04566506725451365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08137506263993127</v>
+      </c>
+      <c r="E33">
+        <v>-0.07309943240129307</v>
+      </c>
+      <c r="F33">
+        <v>0.1143312559108864</v>
+      </c>
+      <c r="G33">
+        <v>-0.01960959034486435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04529404902689788</v>
+        <v>0.04122460510414538</v>
       </c>
       <c r="C34">
-        <v>-0.06581621218193179</v>
+        <v>0.06432277269904448</v>
       </c>
       <c r="D34">
-        <v>-0.01081054636249311</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03522283152307053</v>
+      </c>
+      <c r="E34">
+        <v>-0.003621541317993424</v>
+      </c>
+      <c r="F34">
+        <v>0.07563724368373782</v>
+      </c>
+      <c r="G34">
+        <v>-0.01060751133012507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0136885727384041</v>
+        <v>0.01306811832297162</v>
       </c>
       <c r="C36">
-        <v>-0.01427306991764579</v>
+        <v>0.01314341393066143</v>
       </c>
       <c r="D36">
-        <v>0.003654037915790029</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02718584524070653</v>
+      </c>
+      <c r="E36">
+        <v>-0.04772516558115971</v>
+      </c>
+      <c r="F36">
+        <v>0.07124586329998725</v>
+      </c>
+      <c r="G36">
+        <v>-0.008894402888137296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0311251725871767</v>
+        <v>0.02484527928012356</v>
       </c>
       <c r="C38">
-        <v>-0.02868011697227136</v>
+        <v>0.02381167341092608</v>
       </c>
       <c r="D38">
-        <v>0.005775752299880473</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02720022236197858</v>
+      </c>
+      <c r="E38">
+        <v>-0.04545215303683589</v>
+      </c>
+      <c r="F38">
+        <v>0.05842376195722676</v>
+      </c>
+      <c r="G38">
+        <v>-0.002094376885560437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04468236550895431</v>
+        <v>0.03992280857087657</v>
       </c>
       <c r="C39">
-        <v>-0.07095784238582381</v>
+        <v>0.06839338491227641</v>
       </c>
       <c r="D39">
-        <v>-0.01981524752437576</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05574536468758183</v>
+      </c>
+      <c r="E39">
+        <v>-0.0332675294761863</v>
+      </c>
+      <c r="F39">
+        <v>0.08457938223675582</v>
+      </c>
+      <c r="G39">
+        <v>0.0139064423096153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01321952001334748</v>
+        <v>0.01402094902155369</v>
       </c>
       <c r="C40">
-        <v>-0.05267425988879015</v>
+        <v>0.03978010805158725</v>
       </c>
       <c r="D40">
-        <v>-0.02176500857054731</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03818240409476139</v>
+      </c>
+      <c r="E40">
+        <v>-0.07394655351255405</v>
+      </c>
+      <c r="F40">
+        <v>0.06910056685791939</v>
+      </c>
+      <c r="G40">
+        <v>-0.03854488481445753</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01924746232047908</v>
+        <v>0.01803192999276202</v>
       </c>
       <c r="C41">
-        <v>-0.0050058951496757</v>
+        <v>0.008088519198929096</v>
       </c>
       <c r="D41">
-        <v>0.003226999810679647</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01501061633155791</v>
+      </c>
+      <c r="E41">
+        <v>-0.04991543027802109</v>
+      </c>
+      <c r="F41">
+        <v>0.05955032198638183</v>
+      </c>
+      <c r="G41">
+        <v>-0.001412077944965453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03641895332658449</v>
+        <v>0.02858594447582358</v>
       </c>
       <c r="C43">
-        <v>-0.02342748427114742</v>
+        <v>0.02246832887797051</v>
       </c>
       <c r="D43">
-        <v>-0.02034261720032518</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04092126794563573</v>
+      </c>
+      <c r="E43">
+        <v>-0.06048678941210365</v>
+      </c>
+      <c r="F43">
+        <v>0.06940071621590237</v>
+      </c>
+      <c r="G43">
+        <v>-0.02128451003588828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01274986085408808</v>
+        <v>0.0147139082663012</v>
       </c>
       <c r="C44">
-        <v>-0.06507435711768425</v>
+        <v>0.05105975074558315</v>
       </c>
       <c r="D44">
-        <v>-0.01572747650296347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04312354574751239</v>
+      </c>
+      <c r="E44">
+        <v>-0.08017481163004155</v>
+      </c>
+      <c r="F44">
+        <v>0.07199609911424129</v>
+      </c>
+      <c r="G44">
+        <v>0.007687005890868792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.004922323508340602</v>
+        <v>0.007762877937495346</v>
       </c>
       <c r="C46">
-        <v>-0.02237973249143821</v>
+        <v>0.02698396154890279</v>
       </c>
       <c r="D46">
-        <v>0.02077706289910659</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01224790106073206</v>
+      </c>
+      <c r="E46">
+        <v>-0.0477597139028176</v>
+      </c>
+      <c r="F46">
+        <v>0.09735973787057202</v>
+      </c>
+      <c r="G46">
+        <v>0.000340209261327523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0813923878832131</v>
+        <v>0.08729932976157023</v>
       </c>
       <c r="C47">
-        <v>-0.06922378281285746</v>
+        <v>0.08037265913371479</v>
       </c>
       <c r="D47">
-        <v>0.02652161337053435</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01613470739838647</v>
+      </c>
+      <c r="E47">
+        <v>-0.06597191876852486</v>
+      </c>
+      <c r="F47">
+        <v>0.07262319822137174</v>
+      </c>
+      <c r="G47">
+        <v>-0.05064513814362565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01805959748304558</v>
+        <v>0.01545924997340878</v>
       </c>
       <c r="C48">
-        <v>-0.01343617074759767</v>
+        <v>0.01723329324514982</v>
       </c>
       <c r="D48">
-        <v>0.01535595959426691</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0170669515628894</v>
+      </c>
+      <c r="E48">
+        <v>-0.05883138782244111</v>
+      </c>
+      <c r="F48">
+        <v>0.08707311715459737</v>
+      </c>
+      <c r="G48">
+        <v>-0.007434200924119818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07928229435909802</v>
+        <v>0.07102387311428322</v>
       </c>
       <c r="C50">
-        <v>-0.07495849083621281</v>
+        <v>0.07335029332460943</v>
       </c>
       <c r="D50">
-        <v>0.0301088229580043</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.003028268454889132</v>
+      </c>
+      <c r="E50">
+        <v>-0.06872492779807964</v>
+      </c>
+      <c r="F50">
+        <v>0.05498286728077544</v>
+      </c>
+      <c r="G50">
+        <v>-0.07000724955071644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01487027226571009</v>
+        <v>0.01106978148647239</v>
       </c>
       <c r="C51">
-        <v>-0.05049141122157789</v>
+        <v>0.03431741264360474</v>
       </c>
       <c r="D51">
-        <v>-0.0250666800304475</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05090235094031316</v>
+      </c>
+      <c r="E51">
+        <v>-0.03701676868527592</v>
+      </c>
+      <c r="F51">
+        <v>0.07403019266426762</v>
+      </c>
+      <c r="G51">
+        <v>0.02089437319010359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07992475684848582</v>
+        <v>0.09346449144408869</v>
       </c>
       <c r="C53">
-        <v>-0.07692171961546675</v>
+        <v>0.08703119021338887</v>
       </c>
       <c r="D53">
-        <v>0.03956433452228789</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03948499599300349</v>
+      </c>
+      <c r="E53">
+        <v>-0.06392992752838532</v>
+      </c>
+      <c r="F53">
+        <v>0.08434742500151987</v>
+      </c>
+      <c r="G53">
+        <v>-0.06391985049041432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02929342463638878</v>
+        <v>0.02770602465358199</v>
       </c>
       <c r="C54">
-        <v>-0.02831863853511116</v>
+        <v>0.02804349677515078</v>
       </c>
       <c r="D54">
-        <v>-0.0007932493461485904</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0305260825095168</v>
+      </c>
+      <c r="E54">
+        <v>-0.04635463916336449</v>
+      </c>
+      <c r="F54">
+        <v>0.095383704750307</v>
+      </c>
+      <c r="G54">
+        <v>-0.008307132651427055</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07386678311146928</v>
+        <v>0.08489483647201598</v>
       </c>
       <c r="C55">
-        <v>-0.05937036114309793</v>
+        <v>0.07032965748800152</v>
       </c>
       <c r="D55">
-        <v>0.04757362606782094</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04705395770812869</v>
+      </c>
+      <c r="E55">
+        <v>-0.04909284623317765</v>
+      </c>
+      <c r="F55">
+        <v>0.05890921594912589</v>
+      </c>
+      <c r="G55">
+        <v>-0.05145978661302591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1427652536954153</v>
+        <v>0.1468731870829908</v>
       </c>
       <c r="C56">
-        <v>-0.09506741807146403</v>
+        <v>0.1047709953677916</v>
       </c>
       <c r="D56">
-        <v>0.04494622681822952</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04889145016336597</v>
+      </c>
+      <c r="E56">
+        <v>-0.05267436083423112</v>
+      </c>
+      <c r="F56">
+        <v>0.04403135806804672</v>
+      </c>
+      <c r="G56">
+        <v>-0.05875482105127949</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.001544886912587793</v>
+        <v>0.0007942662369494452</v>
       </c>
       <c r="C57">
-        <v>0.002410521364729611</v>
+        <v>-0.001175662987165254</v>
       </c>
       <c r="D57">
-        <v>-0.01383175068407832</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01106672749819006</v>
+      </c>
+      <c r="E57">
+        <v>-0.008712245682344614</v>
+      </c>
+      <c r="F57">
+        <v>0.00710453798028457</v>
+      </c>
+      <c r="G57">
+        <v>0.0001539445984270255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05049609532437129</v>
+        <v>0.03012427804498866</v>
       </c>
       <c r="C58">
-        <v>-0.03211122415447919</v>
+        <v>0.03269186458061322</v>
       </c>
       <c r="D58">
-        <v>-0.7008406722396223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4149489999529117</v>
+      </c>
+      <c r="E58">
+        <v>-0.6461849398128879</v>
+      </c>
+      <c r="F58">
+        <v>-0.5583501149947115</v>
+      </c>
+      <c r="G58">
+        <v>0.07110949450716367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1366308221104831</v>
+        <v>0.1451816868300898</v>
       </c>
       <c r="C59">
-        <v>0.1906147653412921</v>
+        <v>-0.1859032598082536</v>
       </c>
       <c r="D59">
-        <v>-0.02260374119379318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03086735579891797</v>
+      </c>
+      <c r="E59">
+        <v>-0.02615418558695705</v>
+      </c>
+      <c r="F59">
+        <v>0.01977343297438527</v>
+      </c>
+      <c r="G59">
+        <v>0.03009882715463566</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3076924593782294</v>
+        <v>0.2823900736496254</v>
       </c>
       <c r="C60">
-        <v>-0.1014444325256387</v>
+        <v>0.1006606754068992</v>
       </c>
       <c r="D60">
-        <v>-0.1316610894755978</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2192554870156198</v>
+      </c>
+      <c r="E60">
+        <v>0.2727613037470182</v>
+      </c>
+      <c r="F60">
+        <v>-0.09133095933421659</v>
+      </c>
+      <c r="G60">
+        <v>-0.05076202375944483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04212730752741353</v>
+        <v>0.04096159824709628</v>
       </c>
       <c r="C61">
-        <v>-0.06577697996348808</v>
+        <v>0.06269328497048693</v>
       </c>
       <c r="D61">
-        <v>-0.01409392340428662</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04668268684453024</v>
+      </c>
+      <c r="E61">
+        <v>-0.03754170411968216</v>
+      </c>
+      <c r="F61">
+        <v>0.07514504450131679</v>
+      </c>
+      <c r="G61">
+        <v>-0.0119156423345058</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01536434790871423</v>
+        <v>0.0150811740735794</v>
       </c>
       <c r="C63">
-        <v>-0.03300855151899616</v>
+        <v>0.03185903938704446</v>
       </c>
       <c r="D63">
-        <v>0.009963204641173359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02215604804344331</v>
+      </c>
+      <c r="E63">
+        <v>-0.05118338717314358</v>
+      </c>
+      <c r="F63">
+        <v>0.06758791871852754</v>
+      </c>
+      <c r="G63">
+        <v>-0.02751403245758157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0484682015886767</v>
+        <v>0.05603001094824874</v>
       </c>
       <c r="C64">
-        <v>-0.04383755729288636</v>
+        <v>0.05583563459225019</v>
       </c>
       <c r="D64">
-        <v>-0.002445856442176592</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.009098324211806152</v>
+      </c>
+      <c r="E64">
+        <v>-0.03348467639436292</v>
+      </c>
+      <c r="F64">
+        <v>0.08476282229255641</v>
+      </c>
+      <c r="G64">
+        <v>-0.01003788125655392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08680617599506459</v>
+        <v>0.07008319017072487</v>
       </c>
       <c r="C65">
-        <v>-0.03606386963059872</v>
+        <v>0.03347009181187657</v>
       </c>
       <c r="D65">
-        <v>-0.05337427712405492</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0874630978950203</v>
+      </c>
+      <c r="E65">
+        <v>-0.03796703037957237</v>
+      </c>
+      <c r="F65">
+        <v>0.004181036802450613</v>
+      </c>
+      <c r="G65">
+        <v>-0.002730012217558616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06196942038221082</v>
+        <v>0.05239530239105242</v>
       </c>
       <c r="C66">
-        <v>-0.100515811107157</v>
+        <v>0.08978703611184773</v>
       </c>
       <c r="D66">
-        <v>-0.04235478487700952</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0826850999837211</v>
+      </c>
+      <c r="E66">
+        <v>-0.03944965605413371</v>
+      </c>
+      <c r="F66">
+        <v>0.08580822854774216</v>
+      </c>
+      <c r="G66">
+        <v>-0.003303298466093485</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05284013073964818</v>
+        <v>0.04664603138859448</v>
       </c>
       <c r="C67">
-        <v>-0.03393006097541663</v>
+        <v>0.03029752602491119</v>
       </c>
       <c r="D67">
-        <v>0.007963610770622111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01339971185632851</v>
+      </c>
+      <c r="E67">
+        <v>-0.02550000147562742</v>
+      </c>
+      <c r="F67">
+        <v>0.0482441953038679</v>
+      </c>
+      <c r="G67">
+        <v>-0.008776994168402764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1313587722873641</v>
+        <v>0.1504789561188771</v>
       </c>
       <c r="C68">
-        <v>0.2812081507926864</v>
+        <v>-0.2485769298380191</v>
       </c>
       <c r="D68">
-        <v>0.01286926258916335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01779021626031538</v>
+      </c>
+      <c r="E68">
+        <v>-0.04215689860709019</v>
+      </c>
+      <c r="F68">
+        <v>0.01326492020090755</v>
+      </c>
+      <c r="G68">
+        <v>-0.01040676245233554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08855705780896889</v>
+        <v>0.08709652839634396</v>
       </c>
       <c r="C69">
-        <v>-0.06808047123032542</v>
+        <v>0.08725182247834647</v>
       </c>
       <c r="D69">
-        <v>0.037974759879657</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007863090228235219</v>
+      </c>
+      <c r="E69">
+        <v>-0.04941337559745808</v>
+      </c>
+      <c r="F69">
+        <v>0.08990865602305362</v>
+      </c>
+      <c r="G69">
+        <v>-0.02921377808121365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1219975799789163</v>
+        <v>0.1430018369780459</v>
       </c>
       <c r="C71">
-        <v>0.2475943656654279</v>
+        <v>-0.2353096618072398</v>
       </c>
       <c r="D71">
-        <v>-0.02300455176373923</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01333901980287759</v>
+      </c>
+      <c r="E71">
+        <v>-0.06277338036130303</v>
+      </c>
+      <c r="F71">
+        <v>0.05422306747446339</v>
+      </c>
+      <c r="G71">
+        <v>-0.03671583292636856</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0878108445305691</v>
+        <v>0.0979360213521777</v>
       </c>
       <c r="C72">
-        <v>-0.05336284434042867</v>
+        <v>0.05738016508595969</v>
       </c>
       <c r="D72">
-        <v>-0.0045227980657217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02847966192281644</v>
+      </c>
+      <c r="E72">
+        <v>-0.0152273639969035</v>
+      </c>
+      <c r="F72">
+        <v>0.07098867262358194</v>
+      </c>
+      <c r="G72">
+        <v>-0.03431745190474349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.407974140193511</v>
+        <v>0.3466106956301455</v>
       </c>
       <c r="C73">
-        <v>-0.0721081930610076</v>
+        <v>0.07598798326761266</v>
       </c>
       <c r="D73">
-        <v>-0.3457363676443104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4579903264701436</v>
+      </c>
+      <c r="E73">
+        <v>0.4831811252917848</v>
+      </c>
+      <c r="F73">
+        <v>-0.2449927259770924</v>
+      </c>
+      <c r="G73">
+        <v>-0.1065605832589655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1062392097897713</v>
+        <v>0.1105984968648922</v>
       </c>
       <c r="C74">
-        <v>-0.09758711733094684</v>
+        <v>0.09676395388933008</v>
       </c>
       <c r="D74">
-        <v>0.02308103445190147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03120623635935222</v>
+      </c>
+      <c r="E74">
+        <v>-0.06599216966945366</v>
+      </c>
+      <c r="F74">
+        <v>0.04766473133403941</v>
+      </c>
+      <c r="G74">
+        <v>-0.07322527017548998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2516056286043286</v>
+        <v>0.2570939292252625</v>
       </c>
       <c r="C75">
-        <v>-0.1069498459498454</v>
+        <v>0.1302315378348493</v>
       </c>
       <c r="D75">
-        <v>0.08908769949265424</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1276183581013357</v>
+      </c>
+      <c r="E75">
+        <v>-0.07173543969595274</v>
+      </c>
+      <c r="F75">
+        <v>0.01663233901992649</v>
+      </c>
+      <c r="G75">
+        <v>-0.07470289603066824</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1117608203682449</v>
+        <v>0.1272886628687594</v>
       </c>
       <c r="C76">
-        <v>-0.08940004991218652</v>
+        <v>0.09884437810724425</v>
       </c>
       <c r="D76">
-        <v>0.04628384004302207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05759909131469928</v>
+      </c>
+      <c r="E76">
+        <v>-0.0789228500952717</v>
+      </c>
+      <c r="F76">
+        <v>0.06889464782502017</v>
+      </c>
+      <c r="G76">
+        <v>-0.05738606802253172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07713920000626678</v>
+        <v>0.0632978346280926</v>
       </c>
       <c r="C77">
-        <v>-0.06447638379443715</v>
+        <v>0.07492594879350022</v>
       </c>
       <c r="D77">
-        <v>-0.05636921301604771</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0657562018253828</v>
+      </c>
+      <c r="E77">
+        <v>-0.09395225246131547</v>
+      </c>
+      <c r="F77">
+        <v>0.1077867777362454</v>
+      </c>
+      <c r="G77">
+        <v>0.1339516488432755</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04684611003540163</v>
+        <v>0.0438309535261209</v>
       </c>
       <c r="C78">
-        <v>-0.05229808480057269</v>
+        <v>0.06082036724795904</v>
       </c>
       <c r="D78">
-        <v>-0.0262727498065371</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06719630854484861</v>
+      </c>
+      <c r="E78">
+        <v>-0.04503833436153021</v>
+      </c>
+      <c r="F78">
+        <v>0.08405041221691693</v>
+      </c>
+      <c r="G78">
+        <v>-0.006637705235528831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02724822612777598</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04119756283592733</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06026872660720742</v>
+      </c>
+      <c r="E79">
+        <v>-0.06340174893080411</v>
+      </c>
+      <c r="F79">
+        <v>0.03383756841930047</v>
+      </c>
+      <c r="G79">
+        <v>-0.07758816298289591</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04455253985477101</v>
+        <v>0.03431869079104994</v>
       </c>
       <c r="C80">
-        <v>-0.05613420132825524</v>
+        <v>0.05582865318181358</v>
       </c>
       <c r="D80">
-        <v>-0.03135156041497962</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04509530044092204</v>
+      </c>
+      <c r="E80">
+        <v>-0.01596064253515786</v>
+      </c>
+      <c r="F80">
+        <v>0.03148994521468936</v>
+      </c>
+      <c r="G80">
+        <v>0.04720357305411801</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1397358201469199</v>
+        <v>0.1405078074864682</v>
       </c>
       <c r="C81">
-        <v>-0.08128242463682878</v>
+        <v>0.09520377220638254</v>
       </c>
       <c r="D81">
-        <v>0.06830071747699455</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09913933618413369</v>
+      </c>
+      <c r="E81">
+        <v>-0.08621745751402943</v>
+      </c>
+      <c r="F81">
+        <v>0.009893821913944442</v>
+      </c>
+      <c r="G81">
+        <v>-0.05098387003337707</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1597967657766712</v>
+        <v>0.2028946324584438</v>
       </c>
       <c r="C82">
-        <v>-0.07657779921119461</v>
+        <v>0.1409909623595937</v>
       </c>
       <c r="D82">
-        <v>0.1571076158862047</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2329198194754429</v>
+      </c>
+      <c r="E82">
+        <v>-0.006601909200017533</v>
+      </c>
+      <c r="F82">
+        <v>0.1029343099622457</v>
+      </c>
+      <c r="G82">
+        <v>-0.04969473950138396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04037103663483492</v>
+        <v>0.02819634999316599</v>
       </c>
       <c r="C83">
-        <v>-0.02843022528146743</v>
+        <v>0.04297119645932416</v>
       </c>
       <c r="D83">
-        <v>-0.03215520797601226</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03458022989223837</v>
+      </c>
+      <c r="E83">
+        <v>-0.02032899502712554</v>
+      </c>
+      <c r="F83">
+        <v>0.03893345433936706</v>
+      </c>
+      <c r="G83">
+        <v>0.02070787050169683</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1.673626372957155e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>9.774847709224155e-05</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0002073391073268799</v>
+      </c>
+      <c r="E84">
+        <v>-0.0001017976498893182</v>
+      </c>
+      <c r="F84">
+        <v>0.0007456228547896349</v>
+      </c>
+      <c r="G84">
+        <v>-0.0004115477208161681</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2172006266073151</v>
+        <v>0.20312884972797</v>
       </c>
       <c r="C85">
-        <v>-0.105981790005001</v>
+        <v>0.1166695495497073</v>
       </c>
       <c r="D85">
-        <v>0.1144882754699061</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09834194395966658</v>
+      </c>
+      <c r="E85">
+        <v>-0.0007962667975394032</v>
+      </c>
+      <c r="F85">
+        <v>-0.00606259184907167</v>
+      </c>
+      <c r="G85">
+        <v>-0.1279241880039885</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008913995522997965</v>
+        <v>0.01025535069231622</v>
       </c>
       <c r="C86">
-        <v>-0.0406522238390935</v>
+        <v>0.03111878261830004</v>
       </c>
       <c r="D86">
-        <v>-0.04087548366899485</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06535259687189296</v>
+      </c>
+      <c r="E86">
+        <v>-0.06501770573042381</v>
+      </c>
+      <c r="F86">
+        <v>0.1223629494177198</v>
+      </c>
+      <c r="G86">
+        <v>0.01579122510146276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02396670136896997</v>
+        <v>0.02260799806828521</v>
       </c>
       <c r="C87">
-        <v>-0.01278845485614003</v>
+        <v>0.02069398006433848</v>
       </c>
       <c r="D87">
-        <v>-0.0939505665645521</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09200572897769148</v>
+      </c>
+      <c r="E87">
+        <v>-0.111496992623634</v>
+      </c>
+      <c r="F87">
+        <v>0.06458554641480405</v>
+      </c>
+      <c r="G87">
+        <v>0.0419351927722208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1046173863017106</v>
+        <v>0.09275213220108973</v>
       </c>
       <c r="C88">
-        <v>-0.0699567703313221</v>
+        <v>0.06336166495544555</v>
       </c>
       <c r="D88">
-        <v>0.02783963626418928</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.006283428548637726</v>
+      </c>
+      <c r="E88">
+        <v>-0.0441178788782691</v>
+      </c>
+      <c r="F88">
+        <v>0.0693417415584336</v>
+      </c>
+      <c r="G88">
+        <v>0.02671342164387326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1908196469795722</v>
+        <v>0.220173957055755</v>
       </c>
       <c r="C89">
-        <v>0.3769407086614038</v>
+        <v>-0.3796471068099492</v>
       </c>
       <c r="D89">
-        <v>0.02056535610797891</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.006907910055451564</v>
+      </c>
+      <c r="E89">
+        <v>-0.06280219248748126</v>
+      </c>
+      <c r="F89">
+        <v>0.07598802177059213</v>
+      </c>
+      <c r="G89">
+        <v>0.06474137882967609</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1827667696054581</v>
+        <v>0.2000982952548875</v>
       </c>
       <c r="C90">
-        <v>0.3357989378616864</v>
+        <v>-0.3138671165860551</v>
       </c>
       <c r="D90">
-        <v>0.01831792062659211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01327590790244319</v>
+      </c>
+      <c r="E90">
+        <v>-0.07203090012577147</v>
+      </c>
+      <c r="F90">
+        <v>0.04182343037123663</v>
+      </c>
+      <c r="G90">
+        <v>0.01325582669311492</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.187278590515529</v>
+        <v>0.1853688043859954</v>
       </c>
       <c r="C91">
-        <v>-0.1287021487439612</v>
+        <v>0.1404441412814275</v>
       </c>
       <c r="D91">
-        <v>0.08616142613873358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1079024057629354</v>
+      </c>
+      <c r="E91">
+        <v>-0.06381414589128892</v>
+      </c>
+      <c r="F91">
+        <v>0.03573043470505244</v>
+      </c>
+      <c r="G91">
+        <v>-0.05861956171931262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1690154929307816</v>
+        <v>0.1816883995828094</v>
       </c>
       <c r="C92">
-        <v>0.283366760583965</v>
+        <v>-0.2859031201401576</v>
       </c>
       <c r="D92">
-        <v>0.0006129730411752632</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.006189113714000781</v>
+      </c>
+      <c r="E92">
+        <v>-0.07293130489180656</v>
+      </c>
+      <c r="F92">
+        <v>0.08395569679714494</v>
+      </c>
+      <c r="G92">
+        <v>0.009343481136903536</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2056779610165434</v>
+        <v>0.2234812353740123</v>
       </c>
       <c r="C93">
-        <v>0.3352430401225818</v>
+        <v>-0.318877353444536</v>
       </c>
       <c r="D93">
-        <v>0.01362866462780187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.005959681090908314</v>
+      </c>
+      <c r="E93">
+        <v>-0.04816747313485426</v>
+      </c>
+      <c r="F93">
+        <v>0.04073232170269565</v>
+      </c>
+      <c r="G93">
+        <v>-0.02644119298747248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3381059087731332</v>
+        <v>0.3438686031137625</v>
       </c>
       <c r="C94">
-        <v>-0.1516303432913638</v>
+        <v>0.181541994658609</v>
       </c>
       <c r="D94">
-        <v>0.4528604638517194</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.5047191236188064</v>
+      </c>
+      <c r="E94">
+        <v>-0.03986062442970447</v>
+      </c>
+      <c r="F94">
+        <v>-0.4491117231840133</v>
+      </c>
+      <c r="G94">
+        <v>0.3311033824300506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1097324180451784</v>
+        <v>0.08476771604985979</v>
       </c>
       <c r="C95">
-        <v>-0.07974511091710902</v>
+        <v>0.06740184326909023</v>
       </c>
       <c r="D95">
-        <v>-0.1292579939560488</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1694005730234341</v>
+      </c>
+      <c r="E95">
+        <v>0.1091352375685615</v>
+      </c>
+      <c r="F95">
+        <v>0.2241926631118211</v>
+      </c>
+      <c r="G95">
+        <v>0.8643966584684302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1959497223382411</v>
+        <v>0.1881203385628474</v>
       </c>
       <c r="C98">
-        <v>-0.02129570959015274</v>
+        <v>0.03986030199437955</v>
       </c>
       <c r="D98">
-        <v>-0.1312991906307658</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1833539462487921</v>
+      </c>
+      <c r="E98">
+        <v>0.1540788948713191</v>
+      </c>
+      <c r="F98">
+        <v>-0.03386217111351501</v>
+      </c>
+      <c r="G98">
+        <v>-0.09885948540653254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006627926775335847</v>
+        <v>0.005833328706774449</v>
       </c>
       <c r="C101">
-        <v>-0.03002471887039374</v>
+        <v>0.02863156629596899</v>
       </c>
       <c r="D101">
-        <v>0.01835463961242112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01969865783179644</v>
+      </c>
+      <c r="E101">
+        <v>-0.03874370730415717</v>
+      </c>
+      <c r="F101">
+        <v>0.08507945008944122</v>
+      </c>
+      <c r="G101">
+        <v>-0.006506346177546152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1208418826267369</v>
+        <v>0.1244509332209939</v>
       </c>
       <c r="C102">
-        <v>-0.07423807796154583</v>
+        <v>0.09786847958424037</v>
       </c>
       <c r="D102">
-        <v>0.02728950434411928</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04601118985136875</v>
+      </c>
+      <c r="E102">
+        <v>0.001376511811676829</v>
+      </c>
+      <c r="F102">
+        <v>0.04524597420820285</v>
+      </c>
+      <c r="G102">
+        <v>-0.01824989784541505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
